--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Jag1-Notch1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Jag1-Notch1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.27784</v>
+        <v>16.33975766666667</v>
       </c>
       <c r="H2">
-        <v>30.83352</v>
+        <v>49.01927300000001</v>
       </c>
       <c r="I2">
-        <v>0.230301226653591</v>
+        <v>0.2979519994155143</v>
       </c>
       <c r="J2">
-        <v>0.230301226653591</v>
+        <v>0.2979519994155143</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>47.57896333333333</v>
+        <v>70.46291600000001</v>
       </c>
       <c r="N2">
-        <v>142.73689</v>
+        <v>211.388748</v>
       </c>
       <c r="O2">
-        <v>0.4501884529482371</v>
+        <v>0.5276750397950939</v>
       </c>
       <c r="P2">
-        <v>0.450188452948237</v>
+        <v>0.5276750397950939</v>
       </c>
       <c r="Q2">
-        <v>489.0089725058666</v>
+        <v>1151.34697192669</v>
       </c>
       <c r="R2">
-        <v>4401.0807525528</v>
+        <v>10362.12274734021</v>
       </c>
       <c r="S2">
-        <v>0.1036789529392614</v>
+        <v>0.1572218331486093</v>
       </c>
       <c r="T2">
-        <v>0.1036789529392614</v>
+        <v>0.1572218331486093</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.27784</v>
+        <v>16.33975766666667</v>
       </c>
       <c r="H3">
-        <v>30.83352</v>
+        <v>49.01927300000001</v>
       </c>
       <c r="I3">
-        <v>0.230301226653591</v>
+        <v>0.2979519994155143</v>
       </c>
       <c r="J3">
-        <v>0.230301226653591</v>
+        <v>0.2979519994155143</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>29.489171</v>
       </c>
       <c r="O3">
-        <v>0.09300808131111739</v>
+        <v>0.07361176802536967</v>
       </c>
       <c r="P3">
-        <v>0.09300808131111736</v>
+        <v>0.07361176802536967</v>
       </c>
       <c r="Q3">
-        <v>101.0283270902133</v>
+        <v>160.6153026436315</v>
       </c>
       <c r="R3">
-        <v>909.2549438119199</v>
+        <v>1445.537723792683</v>
       </c>
       <c r="S3">
-        <v>0.02141987521464727</v>
+        <v>0.02193277346366992</v>
       </c>
       <c r="T3">
-        <v>0.02141987521464726</v>
+        <v>0.02193277346366992</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.27784</v>
+        <v>16.33975766666667</v>
       </c>
       <c r="H4">
-        <v>30.83352</v>
+        <v>49.01927300000001</v>
       </c>
       <c r="I4">
-        <v>0.230301226653591</v>
+        <v>0.2979519994155143</v>
       </c>
       <c r="J4">
-        <v>0.230301226653591</v>
+        <v>0.2979519994155143</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>37.34441866666666</v>
+        <v>42.505498</v>
       </c>
       <c r="N4">
-        <v>112.033256</v>
+        <v>127.516494</v>
       </c>
       <c r="O4">
-        <v>0.3533499868001453</v>
+        <v>0.3183105613832428</v>
       </c>
       <c r="P4">
-        <v>0.3533499868001453</v>
+        <v>0.3183105613832428</v>
       </c>
       <c r="Q4">
-        <v>383.8199599490133</v>
+        <v>694.5295368209846</v>
       </c>
       <c r="R4">
-        <v>3454.37963954112</v>
+        <v>6250.765831388862</v>
       </c>
       <c r="S4">
-        <v>0.08137693539810366</v>
+        <v>0.094841268199212</v>
       </c>
       <c r="T4">
-        <v>0.08137693539810364</v>
+        <v>0.094841268199212</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.27784</v>
+        <v>16.33975766666667</v>
       </c>
       <c r="H5">
-        <v>30.83352</v>
+        <v>49.01927300000001</v>
       </c>
       <c r="I5">
-        <v>0.230301226653591</v>
+        <v>0.2979519994155143</v>
       </c>
       <c r="J5">
-        <v>0.230301226653591</v>
+        <v>0.2979519994155143</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.933664</v>
+        <v>10.73653933333333</v>
       </c>
       <c r="N5">
-        <v>32.80099199999999</v>
+        <v>32.209618</v>
       </c>
       <c r="O5">
-        <v>0.1034534789405002</v>
+        <v>0.08040263079629371</v>
       </c>
       <c r="P5">
-        <v>0.1034534789405002</v>
+        <v>0.08040263079629371</v>
       </c>
       <c r="Q5">
-        <v>112.37444920576</v>
+        <v>175.4324508853016</v>
       </c>
       <c r="R5">
-        <v>1011.37004285184</v>
+        <v>1578.892057967714</v>
       </c>
       <c r="S5">
-        <v>0.02382546310157865</v>
+        <v>0.02395612460402312</v>
       </c>
       <c r="T5">
-        <v>0.02382546310157864</v>
+        <v>0.02395612460402312</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>43.704382</v>
       </c>
       <c r="I6">
-        <v>0.3264360600001921</v>
+        <v>0.2656466977818992</v>
       </c>
       <c r="J6">
-        <v>0.326436060000192</v>
+        <v>0.2656466977818992</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>47.57896333333333</v>
+        <v>70.46291600000001</v>
       </c>
       <c r="N6">
-        <v>142.73689</v>
+        <v>211.388748</v>
       </c>
       <c r="O6">
-        <v>0.4501884529482371</v>
+        <v>0.5276750397950939</v>
       </c>
       <c r="P6">
-        <v>0.450188452948237</v>
+        <v>0.5276750397950939</v>
       </c>
       <c r="Q6">
-        <v>693.1363962279976</v>
+        <v>1026.512732565971</v>
       </c>
       <c r="R6">
-        <v>6238.227566051979</v>
+        <v>9238.614593093736</v>
       </c>
       <c r="S6">
-        <v>0.1469577448380044</v>
+        <v>0.1401751318234989</v>
       </c>
       <c r="T6">
-        <v>0.1469577448380043</v>
+        <v>0.1401751318234989</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>43.704382</v>
       </c>
       <c r="I7">
-        <v>0.3264360600001921</v>
+        <v>0.2656466977818992</v>
       </c>
       <c r="J7">
-        <v>0.326436060000192</v>
+        <v>0.2656466977818992</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>29.489171</v>
       </c>
       <c r="O7">
-        <v>0.09300808131111739</v>
+        <v>0.07361176802536967</v>
       </c>
       <c r="P7">
-        <v>0.09300808131111736</v>
+        <v>0.07361176802536967</v>
       </c>
       <c r="Q7">
         <v>143.2006660274802</v>
@@ -883,10 +883,10 @@
         <v>1288.805994247322</v>
       </c>
       <c r="S7">
-        <v>0.03036119161137866</v>
+        <v>0.01955472309382665</v>
       </c>
       <c r="T7">
-        <v>0.03036119161137865</v>
+        <v>0.01955472309382665</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>43.704382</v>
       </c>
       <c r="I8">
-        <v>0.3264360600001921</v>
+        <v>0.2656466977818992</v>
       </c>
       <c r="J8">
-        <v>0.326436060000192</v>
+        <v>0.2656466977818992</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>37.34441866666666</v>
+        <v>42.505498</v>
       </c>
       <c r="N8">
-        <v>112.033256</v>
+        <v>127.516494</v>
       </c>
       <c r="O8">
-        <v>0.3533499868001453</v>
+        <v>0.3183105613832428</v>
       </c>
       <c r="P8">
-        <v>0.3533499868001453</v>
+        <v>0.3183105613832428</v>
       </c>
       <c r="Q8">
-        <v>544.0382463253101</v>
+        <v>619.2255072307452</v>
       </c>
       <c r="R8">
-        <v>4896.344216927791</v>
+        <v>5573.029565076708</v>
       </c>
       <c r="S8">
-        <v>0.1153461774921593</v>
+        <v>0.08455814950056098</v>
       </c>
       <c r="T8">
-        <v>0.1153461774921593</v>
+        <v>0.08455814950056098</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>43.704382</v>
       </c>
       <c r="I9">
-        <v>0.3264360600001921</v>
+        <v>0.2656466977818992</v>
       </c>
       <c r="J9">
-        <v>0.326436060000192</v>
+        <v>0.2656466977818992</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>10.933664</v>
+        <v>10.73653933333333</v>
       </c>
       <c r="N9">
-        <v>32.80099199999999</v>
+        <v>32.209618</v>
       </c>
       <c r="O9">
-        <v>0.1034534789405002</v>
+        <v>0.08040263079629371</v>
       </c>
       <c r="P9">
-        <v>0.1034534789405002</v>
+        <v>0.08040263079629371</v>
       </c>
       <c r="Q9">
-        <v>159.2830093718826</v>
+        <v>156.4112721273418</v>
       </c>
       <c r="R9">
-        <v>1433.547084346944</v>
+        <v>1407.701449146076</v>
       </c>
       <c r="S9">
-        <v>0.03377094605864975</v>
+        <v>0.02135869336401266</v>
       </c>
       <c r="T9">
-        <v>0.03377094605864973</v>
+        <v>0.02135869336401266</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>17.13170833333333</v>
+        <v>22.15292366666667</v>
       </c>
       <c r="H10">
-        <v>51.395125</v>
+        <v>66.458771</v>
       </c>
       <c r="I10">
-        <v>0.3838796326697257</v>
+        <v>0.4039538427701242</v>
       </c>
       <c r="J10">
-        <v>0.3838796326697257</v>
+        <v>0.4039538427701242</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>47.57896333333333</v>
+        <v>70.46291600000001</v>
       </c>
       <c r="N10">
-        <v>142.73689</v>
+        <v>211.388748</v>
       </c>
       <c r="O10">
-        <v>0.4501884529482371</v>
+        <v>0.5276750397950939</v>
       </c>
       <c r="P10">
-        <v>0.450188452948237</v>
+        <v>0.5276750397950939</v>
       </c>
       <c r="Q10">
-        <v>815.1089226290276</v>
+        <v>1560.959599478746</v>
       </c>
       <c r="R10">
-        <v>7335.980303661249</v>
+        <v>14048.63639530871</v>
       </c>
       <c r="S10">
-        <v>0.1728181779499214</v>
+        <v>0.2131563600591064</v>
       </c>
       <c r="T10">
-        <v>0.1728181779499213</v>
+        <v>0.2131563600591064</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>17.13170833333333</v>
+        <v>22.15292366666667</v>
       </c>
       <c r="H11">
-        <v>51.395125</v>
+        <v>66.458771</v>
       </c>
       <c r="I11">
-        <v>0.3838796326697257</v>
+        <v>0.4039538427701242</v>
       </c>
       <c r="J11">
-        <v>0.3838796326697257</v>
+        <v>0.4039538427701242</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>29.489171</v>
       </c>
       <c r="O11">
-        <v>0.09300808131111739</v>
+        <v>0.07361176802536967</v>
       </c>
       <c r="P11">
-        <v>0.09300808131111736</v>
+        <v>0.07361176802536967</v>
       </c>
       <c r="Q11">
-        <v>168.3999588545972</v>
+        <v>217.7571180520934</v>
       </c>
       <c r="R11">
-        <v>1515.599629691375</v>
+        <v>1959.814062468841</v>
       </c>
       <c r="S11">
-        <v>0.03570390808902773</v>
+        <v>0.02973575656695104</v>
       </c>
       <c r="T11">
-        <v>0.03570390808902771</v>
+        <v>0.02973575656695104</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>17.13170833333333</v>
+        <v>22.15292366666667</v>
       </c>
       <c r="H12">
-        <v>51.395125</v>
+        <v>66.458771</v>
       </c>
       <c r="I12">
-        <v>0.3838796326697257</v>
+        <v>0.4039538427701242</v>
       </c>
       <c r="J12">
-        <v>0.3838796326697257</v>
+        <v>0.4039538427701242</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>37.34441866666666</v>
+        <v>42.505498</v>
       </c>
       <c r="N12">
-        <v>112.033256</v>
+        <v>127.516494</v>
       </c>
       <c r="O12">
-        <v>0.3533499868001453</v>
+        <v>0.3183105613832428</v>
       </c>
       <c r="P12">
-        <v>0.3533499868001453</v>
+        <v>0.3183105613832428</v>
       </c>
       <c r="Q12">
-        <v>639.7736884752221</v>
+        <v>941.6210526076526</v>
       </c>
       <c r="R12">
-        <v>5757.963196277</v>
+        <v>8474.589473468874</v>
       </c>
       <c r="S12">
-        <v>0.1356438631366922</v>
+        <v>0.1285827744650765</v>
       </c>
       <c r="T12">
-        <v>0.1356438631366922</v>
+        <v>0.1285827744650765</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>17.13170833333333</v>
+        <v>22.15292366666667</v>
       </c>
       <c r="H13">
-        <v>51.395125</v>
+        <v>66.458771</v>
       </c>
       <c r="I13">
-        <v>0.3838796326697257</v>
+        <v>0.4039538427701242</v>
       </c>
       <c r="J13">
-        <v>0.3838796326697257</v>
+        <v>0.4039538427701242</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>10.933664</v>
+        <v>10.73653933333333</v>
       </c>
       <c r="N13">
-        <v>32.80099199999999</v>
+        <v>32.209618</v>
       </c>
       <c r="O13">
-        <v>0.1034534789405002</v>
+        <v>0.08040263079629371</v>
       </c>
       <c r="P13">
-        <v>0.1034534789405002</v>
+        <v>0.08040263079629371</v>
       </c>
       <c r="Q13">
-        <v>187.3123426626666</v>
+        <v>237.8457362954975</v>
       </c>
       <c r="R13">
-        <v>1685.811083964</v>
+        <v>2140.611626659478</v>
       </c>
       <c r="S13">
-        <v>0.03971368349408445</v>
+        <v>0.03247895167899038</v>
       </c>
       <c r="T13">
-        <v>0.03971368349408443</v>
+        <v>0.03247895167899038</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.650137</v>
+        <v>1.779426333333333</v>
       </c>
       <c r="H14">
-        <v>7.950411</v>
+        <v>5.338279</v>
       </c>
       <c r="I14">
-        <v>0.05938308067649115</v>
+        <v>0.03244746003246218</v>
       </c>
       <c r="J14">
-        <v>0.05938308067649114</v>
+        <v>0.03244746003246217</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>47.57896333333333</v>
+        <v>70.46291600000001</v>
       </c>
       <c r="N14">
-        <v>142.73689</v>
+        <v>211.388748</v>
       </c>
       <c r="O14">
-        <v>0.4501884529482371</v>
+        <v>0.5276750397950939</v>
       </c>
       <c r="P14">
-        <v>0.450188452948237</v>
+        <v>0.5276750397950939</v>
       </c>
       <c r="Q14">
-        <v>126.09077115131</v>
+        <v>125.3835682538547</v>
       </c>
       <c r="R14">
-        <v>1134.81694036179</v>
+        <v>1128.452114284692</v>
       </c>
       <c r="S14">
-        <v>0.0267335772210499</v>
+        <v>0.0171217147638792</v>
       </c>
       <c r="T14">
-        <v>0.02673357722104989</v>
+        <v>0.01712171476387919</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.650137</v>
+        <v>1.779426333333333</v>
       </c>
       <c r="H15">
-        <v>7.950411</v>
+        <v>5.338279</v>
       </c>
       <c r="I15">
-        <v>0.05938308067649115</v>
+        <v>0.03244746003246218</v>
       </c>
       <c r="J15">
-        <v>0.05938308067649114</v>
+        <v>0.03244746003246217</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>29.489171</v>
       </c>
       <c r="O15">
-        <v>0.09300808131111739</v>
+        <v>0.07361176802536967</v>
       </c>
       <c r="P15">
-        <v>0.09300808131111736</v>
+        <v>0.07361176802536967</v>
       </c>
       <c r="Q15">
-        <v>26.050114388809</v>
+        <v>17.49126914185656</v>
       </c>
       <c r="R15">
-        <v>234.451029499281</v>
+        <v>157.421422276709</v>
       </c>
       <c r="S15">
-        <v>0.005523106396063732</v>
+        <v>0.00238851490092206</v>
       </c>
       <c r="T15">
-        <v>0.00552310639606373</v>
+        <v>0.002388514900922059</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.650137</v>
+        <v>1.779426333333333</v>
       </c>
       <c r="H16">
-        <v>7.950411</v>
+        <v>5.338279</v>
       </c>
       <c r="I16">
-        <v>0.05938308067649115</v>
+        <v>0.03244746003246218</v>
       </c>
       <c r="J16">
-        <v>0.05938308067649114</v>
+        <v>0.03244746003246217</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>37.34441866666666</v>
+        <v>42.505498</v>
       </c>
       <c r="N16">
-        <v>112.033256</v>
+        <v>127.516494</v>
       </c>
       <c r="O16">
-        <v>0.3533499868001453</v>
+        <v>0.3183105613832428</v>
       </c>
       <c r="P16">
-        <v>0.3533499868001453</v>
+        <v>0.3183105613832428</v>
       </c>
       <c r="Q16">
-        <v>98.96782565202399</v>
+        <v>75.63540245264733</v>
       </c>
       <c r="R16">
-        <v>890.7104308682159</v>
+        <v>680.7186220738259</v>
       </c>
       <c r="S16">
-        <v>0.02098301077319011</v>
+        <v>0.01032836921839337</v>
       </c>
       <c r="T16">
-        <v>0.02098301077319011</v>
+        <v>0.01032836921839337</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.650137</v>
+        <v>1.779426333333333</v>
       </c>
       <c r="H17">
-        <v>7.950411</v>
+        <v>5.338279</v>
       </c>
       <c r="I17">
-        <v>0.05938308067649115</v>
+        <v>0.03244746003246218</v>
       </c>
       <c r="J17">
-        <v>0.05938308067649114</v>
+        <v>0.03244746003246217</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>10.933664</v>
+        <v>10.73653933333333</v>
       </c>
       <c r="N17">
-        <v>32.80099199999999</v>
+        <v>32.209618</v>
       </c>
       <c r="O17">
-        <v>0.1034534789405002</v>
+        <v>0.08040263079629371</v>
       </c>
       <c r="P17">
-        <v>0.1034534789405002</v>
+        <v>0.08040263079629371</v>
       </c>
       <c r="Q17">
-        <v>28.975707511968</v>
+        <v>19.10488081860244</v>
       </c>
       <c r="R17">
-        <v>260.781367607712</v>
+        <v>171.943927367422</v>
       </c>
       <c r="S17">
-        <v>0.006143386286187404</v>
+        <v>0.002608861149267553</v>
       </c>
       <c r="T17">
-        <v>0.006143386286187402</v>
+        <v>0.002608861149267552</v>
       </c>
     </row>
   </sheetData>
